--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H2">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I2">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J2">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.665097333333333</v>
+        <v>12.52893266666667</v>
       </c>
       <c r="N2">
-        <v>13.995292</v>
+        <v>37.586798</v>
       </c>
       <c r="O2">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="P2">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="Q2">
-        <v>144.2489505980662</v>
+        <v>675.5824594708964</v>
       </c>
       <c r="R2">
-        <v>1298.240555382596</v>
+        <v>6080.242135238068</v>
       </c>
       <c r="S2">
-        <v>0.02716608791005323</v>
+        <v>0.06781192054085673</v>
       </c>
       <c r="T2">
-        <v>0.02716608791005323</v>
+        <v>0.06781192054085672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H3">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I3">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J3">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>49.230131</v>
       </c>
       <c r="O3">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="P3">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="Q3">
-        <v>507.4131168220947</v>
+        <v>884.8589066047717</v>
       </c>
       <c r="R3">
-        <v>4566.718051398852</v>
+        <v>7963.730159442946</v>
       </c>
       <c r="S3">
-        <v>0.09555999735978619</v>
+        <v>0.08881814650952623</v>
       </c>
       <c r="T3">
-        <v>0.09555999735978618</v>
+        <v>0.08881814650952623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H4">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I4">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J4">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.65804266666667</v>
+        <v>20.12267066666667</v>
       </c>
       <c r="N4">
-        <v>52.974128</v>
+        <v>60.368012</v>
       </c>
       <c r="O4">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860792</v>
       </c>
       <c r="P4">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860791</v>
       </c>
       <c r="Q4">
-        <v>546.002353709207</v>
+        <v>1085.050395096933</v>
       </c>
       <c r="R4">
-        <v>4914.021183382863</v>
+        <v>9765.453555872393</v>
       </c>
       <c r="S4">
-        <v>0.102827423551178</v>
+        <v>0.1089124653010742</v>
       </c>
       <c r="T4">
-        <v>0.1028274235511779</v>
+        <v>0.1089124653010742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H5">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I5">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J5">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.172329</v>
+        <v>24.83812066666667</v>
       </c>
       <c r="N5">
-        <v>54.516987</v>
+        <v>74.51436200000001</v>
       </c>
       <c r="O5">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="P5">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="Q5">
-        <v>561.904543650709</v>
+        <v>1339.315893465166</v>
       </c>
       <c r="R5">
-        <v>5057.140892856381</v>
+        <v>12053.84304118649</v>
       </c>
       <c r="S5">
-        <v>0.1058222480412148</v>
+        <v>0.1344344893410882</v>
       </c>
       <c r="T5">
-        <v>0.1058222480412148</v>
+        <v>0.1344344893410882</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H6">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I6">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J6">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.111344666666667</v>
+        <v>4.617728333333333</v>
       </c>
       <c r="N6">
-        <v>15.334034</v>
+        <v>13.853185</v>
       </c>
       <c r="O6">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="P6">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="Q6">
-        <v>158.0473142636158</v>
+        <v>248.9961713100789</v>
       </c>
       <c r="R6">
-        <v>1422.425828372542</v>
+        <v>2240.96554179071</v>
       </c>
       <c r="S6">
-        <v>0.02976470342024626</v>
+        <v>0.02499311275352022</v>
       </c>
       <c r="T6">
-        <v>0.02976470342024626</v>
+        <v>0.02499311275352022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H7">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I7">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J7">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.44741733333333</v>
+        <v>32.18817566666667</v>
       </c>
       <c r="N7">
-        <v>40.342252</v>
+        <v>96.564527</v>
       </c>
       <c r="O7">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="P7">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="Q7">
-        <v>415.8060807707862</v>
+        <v>1735.644005863542</v>
       </c>
       <c r="R7">
-        <v>3742.254726937076</v>
+        <v>15620.79605277188</v>
       </c>
       <c r="S7">
-        <v>0.07830784554702545</v>
+        <v>0.1742161179036696</v>
       </c>
       <c r="T7">
-        <v>0.07830784554702543</v>
+        <v>0.1742161179036696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>53.476874</v>
       </c>
       <c r="I8">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J8">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.665097333333333</v>
+        <v>12.52893266666667</v>
       </c>
       <c r="N8">
-        <v>13.995292</v>
+        <v>37.586798</v>
       </c>
       <c r="O8">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="P8">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="Q8">
-        <v>83.15827409746754</v>
+        <v>223.3360511899391</v>
       </c>
       <c r="R8">
-        <v>748.4244668772079</v>
+        <v>2010.024460709452</v>
       </c>
       <c r="S8">
-        <v>0.01566101503833326</v>
+        <v>0.02241746561783446</v>
       </c>
       <c r="T8">
-        <v>0.01566101503833325</v>
+        <v>0.02241746561783446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>53.476874</v>
       </c>
       <c r="I9">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J9">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>49.230131</v>
       </c>
       <c r="O9">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="P9">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="Q9">
         <v>292.5192791656104</v>
@@ -1013,10 +1013,10 @@
         <v>2632.673512490494</v>
       </c>
       <c r="S9">
-        <v>0.05508951309698407</v>
+        <v>0.02936176603960748</v>
       </c>
       <c r="T9">
-        <v>0.05508951309698406</v>
+        <v>0.02936176603960748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>53.476874</v>
       </c>
       <c r="I10">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J10">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.65804266666667</v>
+        <v>20.12267066666667</v>
       </c>
       <c r="N10">
-        <v>52.974128</v>
+        <v>60.368012</v>
       </c>
       <c r="O10">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860792</v>
       </c>
       <c r="P10">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860791</v>
       </c>
       <c r="Q10">
-        <v>314.7656409239858</v>
+        <v>358.6991745949431</v>
       </c>
       <c r="R10">
-        <v>2832.890768315872</v>
+        <v>3228.292571354488</v>
       </c>
       <c r="S10">
-        <v>0.05927912152533802</v>
+        <v>0.03600460548480395</v>
       </c>
       <c r="T10">
-        <v>0.05927912152533801</v>
+        <v>0.03600460548480394</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>53.476874</v>
       </c>
       <c r="I11">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J11">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.172329</v>
+        <v>24.83812066666667</v>
       </c>
       <c r="N11">
-        <v>54.516987</v>
+        <v>74.51436200000001</v>
       </c>
       <c r="O11">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="P11">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="Q11">
-        <v>323.933116073182</v>
+        <v>442.7550164293764</v>
       </c>
       <c r="R11">
-        <v>2915.398044658638</v>
+        <v>3984.795147864389</v>
       </c>
       <c r="S11">
-        <v>0.06100561197662892</v>
+        <v>0.0444417518132263</v>
       </c>
       <c r="T11">
-        <v>0.0610056119766289</v>
+        <v>0.0444417518132263</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>53.476874</v>
       </c>
       <c r="I12">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J12">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.111344666666667</v>
+        <v>4.617728333333333</v>
       </c>
       <c r="N12">
-        <v>15.334034</v>
+        <v>13.853185</v>
       </c>
       <c r="O12">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="P12">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="Q12">
-        <v>91.11291156996845</v>
+        <v>82.31389208263221</v>
       </c>
       <c r="R12">
-        <v>820.016204129716</v>
+        <v>740.82502874369</v>
       </c>
       <c r="S12">
-        <v>0.01715909443492237</v>
+        <v>0.008262297268179111</v>
       </c>
       <c r="T12">
-        <v>0.01715909443492236</v>
+        <v>0.008262297268179111</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>53.476874</v>
       </c>
       <c r="I13">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J13">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.44741733333333</v>
+        <v>32.18817566666667</v>
       </c>
       <c r="N13">
-        <v>40.342252</v>
+        <v>96.564527</v>
       </c>
       <c r="O13">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="P13">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="Q13">
-        <v>239.7086141200276</v>
+        <v>573.7743381387331</v>
       </c>
       <c r="R13">
-        <v>2157.377527080248</v>
+        <v>5163.969043248598</v>
       </c>
       <c r="S13">
-        <v>0.0451437965890408</v>
+        <v>0.05759288045565752</v>
       </c>
       <c r="T13">
-        <v>0.04514379658904079</v>
+        <v>0.05759288045565752</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H14">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I14">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J14">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.665097333333333</v>
+        <v>12.52893266666667</v>
       </c>
       <c r="N14">
-        <v>13.995292</v>
+        <v>37.586798</v>
       </c>
       <c r="O14">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="P14">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="Q14">
-        <v>1.689090236447556</v>
+        <v>0.3534453668375556</v>
       </c>
       <c r="R14">
-        <v>15.201812128028</v>
+        <v>3.181008301538</v>
       </c>
       <c r="S14">
-        <v>0.0003181026528172333</v>
+        <v>3.547725195573227E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003181026528172332</v>
+        <v>3.547725195573226E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H15">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I15">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J15">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>49.230131</v>
       </c>
       <c r="O15">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="P15">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="Q15">
-        <v>5.941579040375444</v>
+        <v>0.4629328018512222</v>
       </c>
       <c r="R15">
-        <v>53.474211363379</v>
+        <v>4.166395216661</v>
       </c>
       <c r="S15">
-        <v>0.00111896452533037</v>
+        <v>4.646710691612268E-05</v>
       </c>
       <c r="T15">
-        <v>0.001118964525330369</v>
+        <v>4.646710691612266E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H16">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I16">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J16">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.65804266666667</v>
+        <v>20.12267066666667</v>
       </c>
       <c r="N16">
-        <v>52.974128</v>
+        <v>60.368012</v>
       </c>
       <c r="O16">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860792</v>
       </c>
       <c r="P16">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860791</v>
       </c>
       <c r="Q16">
-        <v>6.393441622305778</v>
+        <v>0.5676672470635556</v>
       </c>
       <c r="R16">
-        <v>57.540974600752</v>
+        <v>5.109005223572</v>
       </c>
       <c r="S16">
-        <v>0.001204062812514357</v>
+        <v>5.697987819528201E-05</v>
       </c>
       <c r="T16">
-        <v>0.001204062812514357</v>
+        <v>5.697987819528199E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H17">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I17">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J17">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.172329</v>
+        <v>24.83812066666667</v>
       </c>
       <c r="N17">
-        <v>54.516987</v>
+        <v>74.51436200000001</v>
       </c>
       <c r="O17">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="P17">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="Q17">
-        <v>6.579649103587001</v>
+        <v>0.7006916633802223</v>
       </c>
       <c r="R17">
-        <v>59.216841932283</v>
+        <v>6.306224970422</v>
       </c>
       <c r="S17">
-        <v>0.001239130858313112</v>
+        <v>7.033226919182216E-05</v>
       </c>
       <c r="T17">
-        <v>0.001239130858313111</v>
+        <v>7.033226919182214E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H18">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I18">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J18">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.111344666666667</v>
+        <v>4.617728333333333</v>
       </c>
       <c r="N18">
-        <v>15.334034</v>
+        <v>13.853185</v>
       </c>
       <c r="O18">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="P18">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="Q18">
-        <v>1.850662859678444</v>
+        <v>0.1302676555261111</v>
       </c>
       <c r="R18">
-        <v>16.655965737106</v>
+        <v>1.172408899735</v>
       </c>
       <c r="S18">
-        <v>0.000348531269929177</v>
+        <v>1.307567978082014E-05</v>
       </c>
       <c r="T18">
-        <v>0.0003485312699291769</v>
+        <v>1.307567978082014E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H19">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I19">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J19">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.44741733333333</v>
+        <v>32.18817566666667</v>
       </c>
       <c r="N19">
-        <v>40.342252</v>
+        <v>96.564527</v>
       </c>
       <c r="O19">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="P19">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="Q19">
-        <v>4.868901911407556</v>
+        <v>0.9080391649485555</v>
       </c>
       <c r="R19">
-        <v>43.820117202668</v>
+        <v>8.172352484536999</v>
       </c>
       <c r="S19">
-        <v>0.0009169495986093995</v>
+        <v>9.114487630377856E-05</v>
       </c>
       <c r="T19">
-        <v>0.0009169495986093989</v>
+        <v>9.114487630377854E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H20">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I20">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J20">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.665097333333333</v>
+        <v>12.52893266666667</v>
       </c>
       <c r="N20">
-        <v>13.995292</v>
+        <v>37.586798</v>
       </c>
       <c r="O20">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="P20">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="Q20">
-        <v>94.80975433080576</v>
+        <v>224.6685908815678</v>
       </c>
       <c r="R20">
-        <v>853.2877889772518</v>
+        <v>2022.01731793411</v>
       </c>
       <c r="S20">
-        <v>0.01785531270905307</v>
+        <v>0.02255121994259451</v>
       </c>
       <c r="T20">
-        <v>0.01785531270905306</v>
+        <v>0.0225512199425945</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H21">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I21">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J21">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>49.230131</v>
       </c>
       <c r="O21">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="P21">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="Q21">
-        <v>333.5047690168512</v>
+        <v>294.2646021798661</v>
       </c>
       <c r="R21">
-        <v>3001.542921151661</v>
+        <v>2648.381419618795</v>
       </c>
       <c r="S21">
-        <v>0.06280822034385902</v>
+        <v>0.02953695369272318</v>
       </c>
       <c r="T21">
-        <v>0.06280822034385901</v>
+        <v>0.02953695369272317</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H22">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I22">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J22">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.65804266666667</v>
+        <v>20.12267066666667</v>
       </c>
       <c r="N22">
-        <v>52.974128</v>
+        <v>60.368012</v>
       </c>
       <c r="O22">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860792</v>
       </c>
       <c r="P22">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860791</v>
       </c>
       <c r="Q22">
-        <v>358.8681151896409</v>
+        <v>360.8393614790378</v>
       </c>
       <c r="R22">
-        <v>3229.813036706767</v>
+        <v>3247.55425331134</v>
       </c>
       <c r="S22">
-        <v>0.06758484359807598</v>
+        <v>0.03621942779241756</v>
       </c>
       <c r="T22">
-        <v>0.06758484359807597</v>
+        <v>0.03621942779241755</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H23">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I23">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J23">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.172329</v>
+        <v>24.83812066666667</v>
       </c>
       <c r="N23">
-        <v>54.516987</v>
+        <v>74.51436200000001</v>
       </c>
       <c r="O23">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="P23">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="Q23">
-        <v>369.320064513533</v>
+        <v>445.3967244291212</v>
       </c>
       <c r="R23">
-        <v>3323.880580621797</v>
+        <v>4008.57051986209</v>
       </c>
       <c r="S23">
-        <v>0.0695532362483313</v>
+        <v>0.04470691454866963</v>
       </c>
       <c r="T23">
-        <v>0.06955323624833128</v>
+        <v>0.04470691454866962</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H24">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I24">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J24">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.111344666666667</v>
+        <v>4.617728333333333</v>
       </c>
       <c r="N24">
-        <v>15.334034</v>
+        <v>13.853185</v>
       </c>
       <c r="O24">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="P24">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="Q24">
-        <v>103.8789327468282</v>
+        <v>82.80501981498055</v>
       </c>
       <c r="R24">
-        <v>934.9103947214539</v>
+        <v>745.245178334825</v>
       </c>
       <c r="S24">
-        <v>0.0195632911525713</v>
+        <v>0.008311594455065076</v>
       </c>
       <c r="T24">
-        <v>0.01956329115257129</v>
+        <v>0.008311594455065074</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H25">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I25">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J25">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.44741733333333</v>
+        <v>32.18817566666667</v>
       </c>
       <c r="N25">
-        <v>40.342252</v>
+        <v>96.564527</v>
       </c>
       <c r="O25">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="P25">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="Q25">
-        <v>273.2946909054457</v>
+        <v>577.1977759381128</v>
       </c>
       <c r="R25">
-        <v>2459.652218149012</v>
+        <v>5194.779983443015</v>
       </c>
       <c r="S25">
-        <v>0.05146898863185003</v>
+        <v>0.05793650970294425</v>
       </c>
       <c r="T25">
-        <v>0.05146898863185001</v>
+        <v>0.05793650970294424</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H26">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I26">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J26">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.665097333333333</v>
+        <v>12.52893266666667</v>
       </c>
       <c r="N26">
-        <v>13.995292</v>
+        <v>37.586798</v>
       </c>
       <c r="O26">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="P26">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="Q26">
-        <v>0.654091742074222</v>
+        <v>2.422510894208889</v>
       </c>
       <c r="R26">
-        <v>5.886825678667999</v>
+        <v>21.80259804788</v>
       </c>
       <c r="S26">
-        <v>0.0001231836605587507</v>
+        <v>0.0002431607185244421</v>
       </c>
       <c r="T26">
-        <v>0.0001231836605587506</v>
+        <v>0.0002431607185244421</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H27">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I27">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J27">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>49.230131</v>
       </c>
       <c r="O27">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="P27">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="Q27">
-        <v>2.300846752488777</v>
+        <v>3.172936643095556</v>
       </c>
       <c r="R27">
-        <v>20.707620772399</v>
+        <v>28.55642978786</v>
       </c>
       <c r="S27">
-        <v>0.0004333134132797536</v>
+        <v>0.0003184850709286919</v>
       </c>
       <c r="T27">
-        <v>0.0004333134132797535</v>
+        <v>0.0003184850709286918</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H28">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I28">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J28">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.65804266666667</v>
+        <v>20.12267066666667</v>
       </c>
       <c r="N28">
-        <v>52.974128</v>
+        <v>60.368012</v>
       </c>
       <c r="O28">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860792</v>
       </c>
       <c r="P28">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860791</v>
       </c>
       <c r="Q28">
-        <v>2.475828276279111</v>
+        <v>3.890785448968889</v>
       </c>
       <c r="R28">
-        <v>22.282454486512</v>
+        <v>35.01706904072</v>
       </c>
       <c r="S28">
-        <v>0.0004662672991708791</v>
+        <v>0.0003905394967087153</v>
       </c>
       <c r="T28">
-        <v>0.000466267299170879</v>
+        <v>0.0003905394967087151</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H29">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I29">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J29">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>18.172329</v>
+        <v>24.83812066666667</v>
       </c>
       <c r="N29">
-        <v>54.516987</v>
+        <v>74.51436200000001</v>
       </c>
       <c r="O29">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="P29">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="Q29">
-        <v>2.547936191647</v>
+        <v>4.802533424635556</v>
       </c>
       <c r="R29">
-        <v>22.931425724823</v>
+        <v>43.22280082172001</v>
       </c>
       <c r="S29">
-        <v>0.0004798472244304603</v>
+        <v>0.0004820566467063884</v>
       </c>
       <c r="T29">
-        <v>0.0004798472244304601</v>
+        <v>0.0004820566467063884</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H30">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I30">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J30">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.111344666666667</v>
+        <v>4.617728333333333</v>
       </c>
       <c r="N30">
-        <v>15.334034</v>
+        <v>13.853185</v>
       </c>
       <c r="O30">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="P30">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="Q30">
-        <v>0.7166599319317777</v>
+        <v>0.8928531656777778</v>
       </c>
       <c r="R30">
-        <v>6.449939387386</v>
+        <v>8.035678491100001</v>
       </c>
       <c r="S30">
-        <v>0.0001349669902744681</v>
+        <v>8.962057418277619E-05</v>
       </c>
       <c r="T30">
-        <v>0.0001349669902744681</v>
+        <v>8.962057418277618E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H31">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I31">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J31">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>13.44741733333333</v>
+        <v>32.18817566666667</v>
       </c>
       <c r="N31">
-        <v>40.342252</v>
+        <v>96.564527</v>
       </c>
       <c r="O31">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="P31">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="Q31">
-        <v>1.885457901834222</v>
+        <v>6.223691059068889</v>
       </c>
       <c r="R31">
-        <v>16.969121116508</v>
+        <v>56.01321953162</v>
       </c>
       <c r="S31">
-        <v>0.0003550841437637444</v>
+        <v>0.0006247060409160922</v>
       </c>
       <c r="T31">
-        <v>0.0003550841437637443</v>
+        <v>0.000624706040916092</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H32">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I32">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J32">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.665097333333333</v>
+        <v>12.52893266666667</v>
       </c>
       <c r="N32">
-        <v>13.995292</v>
+        <v>37.586798</v>
       </c>
       <c r="O32">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="P32">
-        <v>0.0618186201873607</v>
+        <v>0.1131733584923374</v>
       </c>
       <c r="Q32">
-        <v>3.68993959748711</v>
+        <v>1.136875350173334</v>
       </c>
       <c r="R32">
-        <v>33.20945637738399</v>
+        <v>10.23187815156</v>
       </c>
       <c r="S32">
-        <v>0.0006949182165451754</v>
+        <v>0.0001141144205715333</v>
       </c>
       <c r="T32">
-        <v>0.0006949182165451753</v>
+        <v>0.0001141144205715333</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H33">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I33">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J33">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>49.230131</v>
       </c>
       <c r="O33">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="P33">
-        <v>0.2174544675497312</v>
+        <v>0.148231282278627</v>
       </c>
       <c r="Q33">
-        <v>12.97980847890689</v>
+        <v>1.489047362313333</v>
       </c>
       <c r="R33">
-        <v>116.818276310162</v>
+        <v>13.40142626082</v>
       </c>
       <c r="S33">
-        <v>0.002444458810491797</v>
+        <v>0.0001494638589252982</v>
       </c>
       <c r="T33">
-        <v>0.002444458810491797</v>
+        <v>0.0001494638589252982</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H34">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I34">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J34">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.65804266666667</v>
+        <v>20.12267066666667</v>
       </c>
       <c r="N34">
-        <v>52.974128</v>
+        <v>60.368012</v>
       </c>
       <c r="O34">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860792</v>
       </c>
       <c r="P34">
-        <v>0.2339920809504103</v>
+        <v>0.1817672966860791</v>
       </c>
       <c r="Q34">
-        <v>13.96693491993955</v>
+        <v>1.825931136293333</v>
       </c>
       <c r="R34">
-        <v>125.702414279456</v>
+        <v>16.43338022664</v>
       </c>
       <c r="S34">
-        <v>0.002630362164133185</v>
+        <v>0.0001832787328794374</v>
       </c>
       <c r="T34">
-        <v>0.002630362164133184</v>
+        <v>0.0001832787328794374</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H35">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I35">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J35">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>18.172329</v>
+        <v>24.83812066666667</v>
       </c>
       <c r="N35">
-        <v>54.516987</v>
+        <v>74.51436200000001</v>
       </c>
       <c r="O35">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="P35">
-        <v>0.2408070451915031</v>
+        <v>0.224361772009784</v>
       </c>
       <c r="Q35">
-        <v>14.373718609586</v>
+        <v>2.253811069293334</v>
       </c>
       <c r="R35">
-        <v>129.363467486274</v>
+        <v>20.28429962364</v>
       </c>
       <c r="S35">
-        <v>0.002706970842584529</v>
+        <v>0.0002262273909016533</v>
       </c>
       <c r="T35">
-        <v>0.002706970842584529</v>
+        <v>0.0002262273909016533</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H36">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I36">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J36">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.111344666666667</v>
+        <v>4.617728333333333</v>
       </c>
       <c r="N36">
-        <v>15.334034</v>
+        <v>13.853185</v>
       </c>
       <c r="O36">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="P36">
-        <v>0.06773197899594202</v>
+        <v>0.04171175933277613</v>
       </c>
       <c r="Q36">
-        <v>4.042906660740888</v>
+        <v>0.4190126689666667</v>
       </c>
       <c r="R36">
-        <v>36.386159946668</v>
+        <v>3.7711140207</v>
       </c>
       <c r="S36">
-        <v>0.0007613917279984643</v>
+        <v>4.20586020481249E-05</v>
       </c>
       <c r="T36">
-        <v>0.0007613917279984642</v>
+        <v>4.20586020481249E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H37">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I37">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J37">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>13.44741733333333</v>
+        <v>32.18817566666667</v>
       </c>
       <c r="N37">
-        <v>40.342252</v>
+        <v>96.564527</v>
       </c>
       <c r="O37">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="P37">
-        <v>0.1781958071250527</v>
+        <v>0.2907545312003963</v>
       </c>
       <c r="Q37">
-        <v>10.63646782836711</v>
+        <v>2.920755059993333</v>
       </c>
       <c r="R37">
-        <v>95.72821045530399</v>
+        <v>26.28679553994</v>
       </c>
       <c r="S37">
-        <v>0.002003142614763311</v>
+        <v>0.0002931722209050418</v>
       </c>
       <c r="T37">
-        <v>0.00200314261476331</v>
+        <v>0.0002931722209050418</v>
       </c>
     </row>
   </sheetData>
